--- a/src/test/java/Resources/Data/SignInBreeder.xlsx
+++ b/src/test/java/Resources/Data/SignInBreeder.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastian.viquez/Documents/NYCATS-QA-branch-A/src/test/java/Resources/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastian.viquez/Documents/AutomationProjects/MarketplaceStage/src/test/java/Resources/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323C2204-2894-4045-8E95-132980AE0C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55783973-AD96-1C4F-97A8-08CEDF56315F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,10 @@
     <t>username</t>
   </si>
   <si>
-    <t>sxv@akc.org</t>
+    <t>CypresHill2*</t>
   </si>
   <si>
-    <t>CypresHill2*</t>
+    <t>sebas.viquez+124@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -102,7 +102,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -384,7 +384,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -403,10 +403,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/Resources/Data/SignInBreeder.xlsx
+++ b/src/test/java/Resources/Data/SignInBreeder.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastian.viquez/Documents/AutomationProjects/MarketplaceStage/src/test/java/Resources/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55783973-AD96-1C4F-97A8-08CEDF56315F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CC037F-D786-DA4F-ADED-8954FF9A0B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
     <t>CypresHill2*</t>
   </si>
   <si>
-    <t>sebas.viquez+124@gmail.com</t>
+    <t>sxv+3@akc.org</t>
   </si>
 </sst>
 </file>
@@ -384,7 +384,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
